--- a/biology/Médecine/Classe_ATC_B/Classe_ATC_B.xlsx
+++ b/biology/Médecine/Classe_ATC_B/Classe_ATC_B.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC B, dénommée « Sang et organes hématopoiétiques », est un groupe anatomique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QB[2]. Le groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC B, dénommée « Sang et organes hématopoiétiques », est un groupe anatomique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QB. Le groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>B : Sang et organes hématopoïétiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>B01 Agents Antithrombotiques
 B02 Antihémorragiques
